--- a/test_files/hydrogenation_test.xlsx
+++ b/test_files/hydrogenation_test.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">ts2</t>
   </si>
   <si>
-    <t xml:space="preserve">p</t>
+    <t xml:space="preserve">Product</t>
   </si>
   <si>
     <t xml:space="preserve">MgH</t>
@@ -315,10 +315,10 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/test_files/hydrogenation_test.xlsx
+++ b/test_files/hydrogenation_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -28,10 +28,22 @@
     <t xml:space="preserve">r</t>
   </si>
   <si>
-    <t xml:space="preserve">ts1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ts2</t>
+    <t xml:space="preserve">ΔGRRS(3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ΔGRRS(TS1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ΔGRRS(4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ΔGRRS(5)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ΔGRRS(TS2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ΔGRRS(6)  </t>
   </si>
   <si>
     <t xml:space="preserve">Product</t>
@@ -230,7 +242,7 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
@@ -244,12 +256,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -278,20 +297,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -315,45 +338,49 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.1"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="n">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="n">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="n">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="n">
@@ -378,11 +405,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="n">
@@ -407,11 +434,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="n">
@@ -436,11 +463,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="n">
@@ -465,11 +492,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
@@ -492,11 +519,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="n">
@@ -521,11 +548,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C8" s="2" t="n">
@@ -550,11 +577,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C9" s="2" t="n">
@@ -579,11 +606,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C10" s="2" t="n">
@@ -608,11 +635,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="n">
@@ -637,11 +664,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C12" s="2" t="n">
@@ -664,11 +691,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C13" s="2" t="n">
@@ -693,11 +720,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C14" s="2" t="n">
@@ -722,11 +749,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C15" s="2" t="n">
@@ -751,11 +778,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C16" s="2" t="n">
@@ -780,11 +807,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="n">
@@ -809,11 +836,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C18" s="2" t="n">
@@ -838,11 +865,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B19" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C19" s="2" t="n">
@@ -867,11 +894,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B20" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C20" s="2" t="n">
@@ -896,11 +923,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B21" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C21" s="2" t="n">
@@ -925,11 +952,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C22" s="2" t="n">
@@ -954,11 +981,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B23" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C23" s="2" t="n">
@@ -983,11 +1010,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C24" s="2" t="n">
@@ -1012,11 +1039,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B25" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C25" s="2" t="n">
@@ -1041,11 +1068,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C26" s="2" t="n">
@@ -1070,11 +1097,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B27" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C27" s="2" t="n">
@@ -1099,11 +1126,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B28" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C28" s="2"/>
@@ -1126,11 +1153,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="B29" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C29" s="2" t="n">
@@ -1155,11 +1182,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B30" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C30" s="2" t="n">
@@ -1184,11 +1211,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="B31" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C31" s="2" t="n">
@@ -1209,11 +1236,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="B32" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C32" s="2" t="n">
@@ -1238,11 +1265,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="B33" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C33" s="2"/>
@@ -1265,11 +1292,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="B34" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C34" s="2" t="n">
@@ -1292,11 +1319,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="B35" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C35" s="2" t="n">
@@ -1321,11 +1348,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="B36" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C36" s="2" t="n">
@@ -1350,11 +1377,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="B37" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C37" s="2" t="n">
@@ -1379,11 +1406,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="B38" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C38" s="2" t="n">
@@ -1408,11 +1435,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="B39" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C39" s="2" t="n">
@@ -1435,11 +1462,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="B40" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C40" s="2" t="n">
@@ -1462,11 +1489,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="B41" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C41" s="2" t="n">
@@ -1489,11 +1516,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="B42" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C42" s="2" t="n">
@@ -1518,11 +1545,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="B43" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C43" s="2" t="n">
@@ -1547,11 +1574,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="B44" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C44" s="2" t="n">
@@ -1576,11 +1603,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="B45" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C45" s="2" t="n">
@@ -1603,11 +1630,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="B46" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C46" s="2" t="n">
@@ -1630,11 +1657,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="B47" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C47" s="2" t="n">
@@ -1659,11 +1686,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="B48" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C48" s="2" t="n">
@@ -1688,11 +1715,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B49" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C49" s="2" t="n">
@@ -1717,11 +1744,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="B50" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C50" s="2" t="n">
@@ -1746,11 +1773,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="B51" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C51" s="2" t="n">
@@ -1775,11 +1802,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B52" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C52" s="2" t="n">
@@ -1804,11 +1831,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B53" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C53" s="2" t="n">
@@ -1833,11 +1860,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="B54" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C54" s="2" t="n">
@@ -1862,11 +1889,11 @@
         <v>-26.43</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="B55" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C55" s="2" t="n">
